--- a/Team_21_M3_FINAL_Deliverable/T21_M3_D2_Dimension_Mapping_files/T21_M3_D2_Dimension_Mapping_files/T21_M3_D2_Dimension_Mapping_metadata.xlsx
+++ b/Team_21_M3_FINAL_Deliverable/T21_M3_D2_Dimension_Mapping_files/T21_M3_D2_Dimension_Mapping_files/T21_M3_D2_Dimension_Mapping_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DW\project\M3\ka\T21_M3_D2_Dimension_Mapping_files (1)\T21_M3_D2_Dimension_Mapping_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\data Warehousing\SEIS-732-Data-Warehousing\Team_21_M3_FINAL_Deliverable\T21_M3_D2_Dimension_Mapping_files\T21_M3_D2_Dimension_Mapping_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500D4A0A-008B-4724-93D0-1D05171E75F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27CF50F5-0F3C-4DE2-89D1-CA2E6354C2C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6960" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="6735" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CUSTOMER" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="PACKAGE" sheetId="7" r:id="rId7"/>
     <sheet name="PRODUCT" sheetId="8" r:id="rId8"/>
     <sheet name="PURCHASE_DATE" sheetId="9" r:id="rId9"/>
-    <sheet name="SALES_ORG" sheetId="10" r:id="rId10"/>
+    <sheet name="RRV_SALES" sheetId="11" r:id="rId10"/>
+    <sheet name="SALES_ORG" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="271">
   <si>
     <t>Database</t>
   </si>
@@ -589,27 +590,111 @@
     <t>SORG_Zone_Name</t>
   </si>
   <si>
+    <t>Incentive Plan</t>
+  </si>
+  <si>
+    <t>IP_Desc</t>
+  </si>
+  <si>
+    <t>IP_ID</t>
+  </si>
+  <si>
+    <t>IP_Level</t>
+  </si>
+  <si>
+    <t>IP_Name</t>
+  </si>
+  <si>
+    <t>IP_Rate</t>
+  </si>
+  <si>
+    <t>IP_Type</t>
+  </si>
+  <si>
+    <t>IP_Num_Payments</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_21_Corporate</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>BR_Address</t>
+  </si>
+  <si>
+    <t>BR_City</t>
+  </si>
+  <si>
+    <t>BR_Country</t>
+  </si>
+  <si>
+    <t>BR_County</t>
+  </si>
+  <si>
+    <t>PLA_Eslablsihed</t>
+  </si>
+  <si>
+    <t>PLA_Desc</t>
+  </si>
+  <si>
+    <t>PLA_Name</t>
+  </si>
+  <si>
+    <t>RTG_Overall_Rating</t>
+  </si>
+  <si>
+    <t>RTG_Eff_Rating</t>
+  </si>
+  <si>
+    <t>RTG_Quality_Rating</t>
+  </si>
+  <si>
+    <t>RTG_ID</t>
+  </si>
+  <si>
+    <t>BR_State</t>
+  </si>
+  <si>
+    <t>BR_Zip</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_21_Product</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>FEA_Type</t>
+  </si>
+  <si>
     <t>MMC</t>
   </si>
   <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Vehicle_type</t>
+  </si>
+  <si>
     <t>MMC_Class_Desc</t>
   </si>
   <si>
-    <t>MMC_Class_Name</t>
+    <t>CLR_Description</t>
+  </si>
+  <si>
+    <t>CLR_ID</t>
   </si>
   <si>
     <t>CLR_Name</t>
   </si>
   <si>
-    <t>CLR_Description</t>
-  </si>
-  <si>
-    <t>CLR_ID</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>MMC_Make_Desc</t>
   </si>
   <si>
@@ -625,9 +710,6 @@
     <t>MMC_Model_Name</t>
   </si>
   <si>
-    <t>Vehicle_Type</t>
-  </si>
-  <si>
     <t>VT_Model_Year</t>
   </si>
   <si>
@@ -637,17 +719,137 @@
     <t>VT_Wholesale_Price</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>VT_MSRP</t>
+    <t>Sales_Territory</t>
+  </si>
+  <si>
+    <t>ST_ID</t>
+  </si>
+  <si>
+    <t>Sales_Mgr</t>
+  </si>
+  <si>
+    <t>ST_Name</t>
+  </si>
+  <si>
+    <t>Sales_District</t>
+  </si>
+  <si>
+    <t>SD_ID</t>
+  </si>
+  <si>
+    <t>SD_Name</t>
+  </si>
+  <si>
+    <t>Sales_Area</t>
+  </si>
+  <si>
+    <t>SA_ID</t>
+  </si>
+  <si>
+    <t>SA_Name</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>Sale_Date</t>
+  </si>
+  <si>
+    <t>Allocated</t>
+  </si>
+  <si>
+    <t>PLA_WorkForce</t>
+  </si>
+  <si>
+    <t>FeatureSet</t>
+  </si>
+  <si>
+    <t>FS_Retail_Price</t>
+  </si>
+  <si>
+    <t>FS_Retail_Set</t>
+  </si>
+  <si>
+    <t>FS_ID</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_00_Star_Schema</t>
+  </si>
+  <si>
+    <t>RRV_Sales</t>
+  </si>
+  <si>
+    <t>RRV_Customer_Status</t>
+  </si>
+  <si>
+    <t>SEIS732_Team_00_Products</t>
+  </si>
+  <si>
+    <t>First_Time_Buyer</t>
+  </si>
+  <si>
+    <t>RRV_Handling_Fees</t>
+  </si>
+  <si>
+    <t>RRV_Key</t>
+  </si>
+  <si>
+    <t>RRV_Processing_Fees</t>
+  </si>
+  <si>
+    <t>RRV_Retail_Or_Wholesale</t>
+  </si>
+  <si>
+    <t>RRV_Sales_Dollars</t>
+  </si>
+  <si>
+    <t>RRV_Serial_Number</t>
+  </si>
+  <si>
+    <t>RRV_Transit_Fees</t>
+  </si>
+  <si>
+    <t>RV_Serial_Number</t>
+  </si>
+  <si>
+    <t>RRV_Instance</t>
+  </si>
+  <si>
+    <t>Handling_Fees</t>
+  </si>
+  <si>
+    <t>Processing_Fees</t>
+  </si>
+  <si>
+    <t>Transit_Fees</t>
+  </si>
+  <si>
+    <t>Actual_Sales_Amount</t>
+  </si>
+  <si>
+    <t>Retail_Or_WholeSale</t>
+  </si>
+  <si>
+    <t>RV_MFG_Date</t>
+  </si>
+  <si>
+    <t>RV_MFG_Plant_Code</t>
+  </si>
+  <si>
+    <t>MGR_First_Name,MGR_Last_Name</t>
+  </si>
+  <si>
+    <t>CD_MGR_Name</t>
+  </si>
+  <si>
+    <t>Corporate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -666,6 +868,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -767,7 +975,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -799,6 +1007,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,6 +1067,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1176,26 +1406,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1349,11 +1579,11 @@
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1442,10 +1672,536 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+    </row>
+    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+    </row>
+    <row r="7" spans="1:12" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+    </row>
+    <row r="9" spans="1:12" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+    </row>
+    <row r="13" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" activeCellId="2" sqref="D7:F7 D9:F9 D13:F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1454,11 +2210,11 @@
     <col min="2" max="2" width="12.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="32" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="12" style="12" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="12" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="12" bestFit="1" customWidth="1"/>
@@ -1466,26 +2222,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -1535,12 +2291,18 @@
       <c r="C3" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>237</v>
+      </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
@@ -1555,12 +2317,24 @@
       <c r="C4" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="D4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>269</v>
+      </c>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -1575,9 +2349,13 @@
       <c r="C5" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="E5" s="21"/>
-      <c r="F5" s="23"/>
+      <c r="F5" s="23" t="s">
+        <v>238</v>
+      </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -1615,11 +2393,11 @@
       <c r="C7" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -1637,9 +2415,15 @@
       <c r="C8" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>230</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -1657,11 +2441,11 @@
       <c r="C9" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -1679,12 +2463,24 @@
       <c r="C10" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="D10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>269</v>
+      </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -1699,9 +2495,15 @@
       <c r="C11" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>232</v>
+      </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -1719,9 +2521,15 @@
       <c r="C12" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>234</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -1739,11 +2547,11 @@
       <c r="C13" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -1761,12 +2569,24 @@
       <c r="C14" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="D14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>269</v>
+      </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -1781,9 +2601,15 @@
       <c r="C15" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>235</v>
+      </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -1793,15 +2619,16 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1830,26 +2657,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2079,11 +2906,11 @@
       <c r="C12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -2287,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2309,26 +3136,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -2378,9 +3205,15 @@
       <c r="C3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
@@ -2398,9 +3231,15 @@
       <c r="C4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -2418,11 +3257,11 @@
       <c r="C5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -2440,9 +3279,15 @@
       <c r="C6" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -2460,9 +3305,15 @@
       <c r="C7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>190</v>
+      </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -2480,9 +3331,15 @@
       <c r="C8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>193</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -2500,9 +3357,15 @@
       <c r="C9" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>191</v>
+      </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -2520,9 +3383,15 @@
       <c r="C10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -2547,7 +3416,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2568,26 +3437,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -2637,9 +3506,15 @@
       <c r="C3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23"/>
+      <c r="D3" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>266</v>
+      </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
@@ -2657,9 +3532,15 @@
       <c r="C4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>266</v>
+      </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -2677,9 +3558,15 @@
       <c r="C5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="23"/>
+      <c r="D5" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>266</v>
+      </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -2697,9 +3584,15 @@
       <c r="C6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>266</v>
+      </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -2717,9 +3610,15 @@
       <c r="C7" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>266</v>
+      </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -2737,9 +3636,15 @@
       <c r="C8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>266</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -2757,11 +3662,11 @@
       <c r="C9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -2779,9 +3684,15 @@
       <c r="C10" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>266</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -2799,11 +3710,11 @@
       <c r="C11" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -2821,9 +3732,15 @@
       <c r="C12" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>266</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -2841,9 +3758,15 @@
       <c r="C13" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>266</v>
+      </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -2861,9 +3784,15 @@
       <c r="C14" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>266</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -2881,9 +3810,15 @@
       <c r="C15" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>266</v>
+      </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -2901,11 +3836,11 @@
       <c r="C16" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -2923,9 +3858,15 @@
       <c r="C17" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>266</v>
+      </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -2943,9 +3884,15 @@
       <c r="C18" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>266</v>
+      </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -2963,9 +3910,15 @@
       <c r="C19" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>266</v>
+      </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -2983,9 +3936,15 @@
       <c r="C20" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>266</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -3003,9 +3962,15 @@
       <c r="C21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>266</v>
+      </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -3023,9 +3988,15 @@
       <c r="C22" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>266</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -3035,15 +4006,16 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3052,7 +4024,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3062,7 +4034,7 @@
     <col min="3" max="3" width="32" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="12" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="12" bestFit="1" customWidth="1"/>
@@ -3073,26 +4045,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -3142,9 +4114,15 @@
       <c r="C3" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>198</v>
+      </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
@@ -3162,9 +4140,15 @@
       <c r="C4" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>199</v>
+      </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -3182,9 +4166,15 @@
       <c r="C5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="23"/>
+      <c r="D5" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>200</v>
+      </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -3202,9 +4192,15 @@
       <c r="C6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>201</v>
+      </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -3222,9 +4218,15 @@
       <c r="C7" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>202</v>
+      </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -3242,9 +4244,15 @@
       <c r="C8" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>203</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -3262,11 +4270,11 @@
       <c r="C9" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -3284,9 +4292,15 @@
       <c r="C10" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -3304,9 +4318,15 @@
       <c r="C11" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>242</v>
+      </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -3324,9 +4344,15 @@
       <c r="C12" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>267</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -3344,9 +4370,15 @@
       <c r="C13" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>206</v>
+      </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -3364,9 +4396,15 @@
       <c r="C14" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -3384,9 +4422,15 @@
       <c r="C15" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>207</v>
+      </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -3404,9 +4448,15 @@
       <c r="C16" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>208</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -3424,9 +4474,15 @@
       <c r="C17" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>209</v>
+      </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -3444,9 +4500,15 @@
       <c r="C18" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -3470,8 +4532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3491,26 +4553,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3586,11 +4648,11 @@
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -3712,11 +4774,11 @@
       <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -3780,7 +4842,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3801,26 +4863,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -3870,9 +4932,15 @@
       <c r="C3" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>213</v>
+      </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
@@ -3890,9 +4958,15 @@
       <c r="C4" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -3910,9 +4984,15 @@
       <c r="C5" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="23"/>
+      <c r="D5" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>213</v>
+      </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -3930,9 +5010,15 @@
       <c r="C6" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -3950,9 +5036,15 @@
       <c r="C7" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>213</v>
+      </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -3970,9 +5062,15 @@
       <c r="C8" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -3990,9 +5088,15 @@
       <c r="C9" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>246</v>
+      </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -4010,9 +5114,15 @@
       <c r="C10" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -4030,9 +5140,15 @@
       <c r="C11" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>213</v>
+      </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -4050,9 +5166,15 @@
       <c r="C12" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -4070,11 +5192,11 @@
       <c r="C13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -4092,9 +5214,15 @@
       <c r="C14" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -4112,9 +5240,15 @@
       <c r="C15" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>213</v>
+      </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -4132,9 +5266,15 @@
       <c r="C16" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -4152,9 +5292,15 @@
       <c r="C17" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>244</v>
+      </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -4172,9 +5318,15 @@
       <c r="C18" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -4192,9 +5344,15 @@
       <c r="C19" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>213</v>
+      </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -4212,9 +5370,15 @@
       <c r="C20" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -4232,9 +5396,15 @@
       <c r="C21" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>213</v>
+      </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -4252,9 +5422,15 @@
       <c r="C22" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -4272,9 +5448,15 @@
       <c r="C23" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="D23" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>213</v>
+      </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -4298,18 +5480,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="12" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="12" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="12" bestFit="1" customWidth="1"/>
@@ -4320,26 +5502,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -4393,10 +5575,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>187</v>
+        <v>214</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>217</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -4415,11 +5597,11 @@
       <c r="C4" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -4441,10 +5623,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>188</v>
+        <v>214</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>217</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -4467,10 +5649,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -4493,10 +5675,10 @@
         <v>16</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -4515,11 +5697,11 @@
       <c r="C8" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -4541,10 +5723,10 @@
         <v>16</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -4563,11 +5745,11 @@
       <c r="C10" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -4589,10 +5771,10 @@
         <v>16</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -4611,11 +5793,11 @@
       <c r="C12" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -4637,10 +5819,10 @@
         <v>16</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -4662,11 +5844,11 @@
       <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>203</v>
+      <c r="E14" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>245</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -4689,10 +5871,10 @@
         <v>16</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -4715,10 +5897,10 @@
         <v>16</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -4737,11 +5919,11 @@
       <c r="C17" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -4763,10 +5945,10 @@
         <v>16</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -4789,10 +5971,10 @@
         <v>16</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -4815,10 +5997,10 @@
         <v>16</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -4841,10 +6023,10 @@
         <v>16</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -4855,15 +6037,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4874,8 +6056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D16" activeCellId="2" sqref="D9:F9 D11:F11 D16:F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4896,26 +6078,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="30" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -4965,9 +6147,15 @@
       <c r="C3" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23"/>
+      <c r="D3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>240</v>
+      </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
@@ -4985,9 +6173,15 @@
       <c r="C4" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -5005,9 +6199,15 @@
       <c r="C5" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="23"/>
+      <c r="D5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>240</v>
+      </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -5025,9 +6225,15 @@
       <c r="C6" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -5045,9 +6251,15 @@
       <c r="C7" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -5065,9 +6277,15 @@
       <c r="C8" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -5085,11 +6303,11 @@
       <c r="C9" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -5107,9 +6325,15 @@
       <c r="C10" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -5127,11 +6351,11 @@
       <c r="C11" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -5149,9 +6373,15 @@
       <c r="C12" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -5169,9 +6399,15 @@
       <c r="C13" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -5189,9 +6425,15 @@
       <c r="C14" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5209,9 +6451,15 @@
       <c r="C15" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -5229,11 +6477,11 @@
       <c r="C16" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -5251,9 +6499,15 @@
       <c r="C17" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -5271,9 +6525,15 @@
       <c r="C18" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -5291,9 +6551,15 @@
       <c r="C19" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="D19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -5311,9 +6577,15 @@
       <c r="C20" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -5331,9 +6603,15 @@
       <c r="C21" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
@@ -5351,9 +6629,15 @@
       <c r="C22" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -5363,13 +6647,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Team_21_M3_FINAL_Deliverable/T21_M3_D2_Dimension_Mapping_files/T21_M3_D2_Dimension_Mapping_files/T21_M3_D2_Dimension_Mapping_metadata.xlsx
+++ b/Team_21_M3_FINAL_Deliverable/T21_M3_D2_Dimension_Mapping_files/T21_M3_D2_Dimension_Mapping_files/T21_M3_D2_Dimension_Mapping_metadata.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\data Warehousing\SEIS-732-Data-Warehousing\Team_21_M3_FINAL_Deliverable\T21_M3_D2_Dimension_Mapping_files\T21_M3_D2_Dimension_Mapping_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalimuk\Desktop\St thomas\Spring Semester\Datawarehousing_732-02\Team_21\T21_M3_D2_Dimension_Mapping_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27CF50F5-0F3C-4DE2-89D1-CA2E6354C2C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="6735" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CUSTOMER" sheetId="1" r:id="rId1"/>
@@ -22,15 +21,14 @@
     <sheet name="PACKAGE" sheetId="7" r:id="rId7"/>
     <sheet name="PRODUCT" sheetId="8" r:id="rId8"/>
     <sheet name="PURCHASE_DATE" sheetId="9" r:id="rId9"/>
-    <sheet name="RRV_SALES" sheetId="11" r:id="rId10"/>
-    <sheet name="SALES_ORG" sheetId="10" r:id="rId11"/>
+    <sheet name="SALES_ORG" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="272">
   <si>
     <t>Database</t>
   </si>
@@ -212,9 +210,6 @@
     <t>DLR_State</t>
   </si>
   <si>
-    <t>DLR_Web_Site</t>
-  </si>
-  <si>
     <t>DLR_Zip</t>
   </si>
   <si>
@@ -638,9 +633,6 @@
     <t>BR_County</t>
   </si>
   <si>
-    <t>PLA_Eslablsihed</t>
-  </si>
-  <si>
     <t>PLA_Desc</t>
   </si>
   <si>
@@ -671,9 +663,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>FEA_Type</t>
-  </si>
-  <si>
     <t>MMC</t>
   </si>
   <si>
@@ -731,6 +720,12 @@
     <t>ST_Name</t>
   </si>
   <si>
+    <t>MGR_First_Name</t>
+  </si>
+  <si>
+    <t>MGR_Last_Name</t>
+  </si>
+  <si>
     <t>Sales_District</t>
   </si>
   <si>
@@ -755,9 +750,6 @@
     <t>Sale_Date</t>
   </si>
   <si>
-    <t>Allocated</t>
-  </si>
-  <si>
     <t>PLA_WorkForce</t>
   </si>
   <si>
@@ -767,88 +759,97 @@
     <t>FS_Retail_Price</t>
   </si>
   <si>
-    <t>FS_Retail_Set</t>
-  </si>
-  <si>
     <t>FS_ID</t>
   </si>
   <si>
-    <t>SEIS732_Team_00_Star_Schema</t>
-  </si>
-  <si>
-    <t>RRV_Sales</t>
-  </si>
-  <si>
-    <t>RRV_Customer_Status</t>
-  </si>
-  <si>
-    <t>SEIS732_Team_00_Products</t>
-  </si>
-  <si>
-    <t>First_Time_Buyer</t>
-  </si>
-  <si>
-    <t>RRV_Handling_Fees</t>
-  </si>
-  <si>
-    <t>RRV_Key</t>
-  </si>
-  <si>
-    <t>RRV_Processing_Fees</t>
-  </si>
-  <si>
-    <t>RRV_Retail_Or_Wholesale</t>
-  </si>
-  <si>
-    <t>RRV_Sales_Dollars</t>
-  </si>
-  <si>
-    <t>RRV_Serial_Number</t>
-  </si>
-  <si>
-    <t>RRV_Transit_Fees</t>
-  </si>
-  <si>
-    <t>RV_Serial_Number</t>
-  </si>
-  <si>
     <t>RRV_Instance</t>
   </si>
   <si>
-    <t>Handling_Fees</t>
-  </si>
-  <si>
-    <t>Processing_Fees</t>
-  </si>
-  <si>
-    <t>Transit_Fees</t>
-  </si>
-  <si>
-    <t>Actual_Sales_Amount</t>
-  </si>
-  <si>
-    <t>Retail_Or_WholeSale</t>
-  </si>
-  <si>
     <t>RV_MFG_Date</t>
   </si>
   <si>
-    <t>RV_MFG_Plant_Code</t>
-  </si>
-  <si>
-    <t>MGR_First_Name,MGR_Last_Name</t>
-  </si>
-  <si>
-    <t>CD_MGR_Name</t>
-  </si>
-  <si>
-    <t>Corporate</t>
+    <t>FEA_Value</t>
+  </si>
+  <si>
+    <t>Owner_Address</t>
+  </si>
+  <si>
+    <t>OADR_Address</t>
+  </si>
+  <si>
+    <t>OADR_City</t>
+  </si>
+  <si>
+    <t>Coporate</t>
+  </si>
+  <si>
+    <t>OADR_Country</t>
+  </si>
+  <si>
+    <t>OADR_County</t>
+  </si>
+  <si>
+    <t>DLR_Email</t>
+  </si>
+  <si>
+    <t>DLR_Type</t>
+  </si>
+  <si>
+    <t>DLR_Since</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>WEB_ID</t>
+  </si>
+  <si>
+    <t>WEB_Start_Date</t>
+  </si>
+  <si>
+    <t>WEB_Admin</t>
+  </si>
+  <si>
+    <t>WEB_URL</t>
+  </si>
+  <si>
+    <t>BR_Phone</t>
+  </si>
+  <si>
+    <t>OADR_Phone</t>
+  </si>
+  <si>
+    <t>OADR_State</t>
+  </si>
+  <si>
+    <t>OADR_Zip</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t>ID_Name</t>
+  </si>
+  <si>
+    <t>CD_Name</t>
+  </si>
+  <si>
+    <t>VT_MSRP</t>
+  </si>
+  <si>
+    <t>MMC_Class_Name</t>
+  </si>
+  <si>
+    <t>PLA_Code</t>
+  </si>
+  <si>
+    <t>PLA_Established</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -975,7 +976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1012,22 +1013,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,11 +1054,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1382,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1406,26 +1392,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="47" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1579,11 +1565,11 @@
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1671,537 +1657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:L20"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-    </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-    </row>
-    <row r="4" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-    </row>
-    <row r="5" spans="1:12" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-    </row>
-    <row r="6" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-    </row>
-    <row r="7" spans="1:12" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-    </row>
-    <row r="9" spans="1:12" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-    </row>
-    <row r="10" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-    </row>
-    <row r="11" spans="1:12" s="40" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-    </row>
-    <row r="12" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-    </row>
-    <row r="13" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-    </row>
-    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-    </row>
-    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-    </row>
-    <row r="16" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-    </row>
-    <row r="18" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-    </row>
-    <row r="19" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-    </row>
-    <row r="20" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2211,37 +1671,37 @@
     <col min="3" max="3" width="32" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="32" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" style="12" customWidth="1"/>
     <col min="8" max="8" width="12" style="12" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="47" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -2286,23 +1746,23 @@
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>172</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>173</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="39"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
@@ -2312,28 +1772,28 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>231</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>269</v>
       </c>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
@@ -2344,19 +1804,21 @@
         <v>7</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="21"/>
+      <c r="E5" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="31"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -2368,36 +1830,54 @@
         <v>7</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+        <v>175</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="7" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="56"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -2410,19 +1890,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -2436,16 +1916,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -2458,28 +1938,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>231</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="I10" s="57" t="s">
-        <v>269</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
@@ -2490,19 +1970,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -2516,19 +1996,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -2542,16 +2022,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -2564,28 +2044,28 @@
         <v>7</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>231</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="I14" s="57" t="s">
-        <v>269</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
@@ -2596,19 +2076,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -2633,228 +2113,307 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="47" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="D3" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="D4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="D5" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="D7" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="D8" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" s="22" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="D9" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -2866,35 +2425,59 @@
       <c r="C10" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="D10" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>254</v>
+      </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="D11" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -2906,11 +2489,11 @@
       <c r="C12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -2919,24 +2502,36 @@
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="D13" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -2948,9 +2543,15 @@
       <c r="C14" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="D14" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>257</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -2959,24 +2560,30 @@
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
+      <c r="D15" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
@@ -2988,9 +2595,15 @@
       <c r="C16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="D16" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>259</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -2999,24 +2612,30 @@
       <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="D17" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
@@ -3028,35 +2647,59 @@
       <c r="C18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="D18" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>262</v>
+      </c>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
+      <c r="D19" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
@@ -3068,35 +2711,27 @@
       <c r="C20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="D20" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>264</v>
+      </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3111,11 +2746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3136,26 +2771,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="47" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -3200,19 +2835,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>186</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>187</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -3226,19 +2861,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -3252,16 +2887,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -3274,19 +2909,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -3300,19 +2935,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -3326,19 +2961,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -3352,19 +2987,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -3378,19 +3013,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -3412,11 +3047,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3437,26 +3072,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="47" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -3501,19 +3136,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>72</v>
-      </c>
       <c r="D3" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -3527,19 +3162,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>266</v>
+        <v>209</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -3553,19 +3188,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>260</v>
+        <v>209</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>244</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -3579,19 +3214,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>266</v>
+        <v>209</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -3605,19 +3240,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>266</v>
+        <v>209</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -3631,19 +3266,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>266</v>
+        <v>209</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -3657,16 +3292,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -3679,19 +3314,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>266</v>
+        <v>209</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -3705,16 +3340,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -3727,19 +3362,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>266</v>
+        <v>209</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -3753,19 +3388,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>266</v>
+        <v>209</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -3779,19 +3414,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>266</v>
+        <v>209</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -3805,19 +3440,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>266</v>
+        <v>209</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -3831,16 +3466,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -3853,19 +3488,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>266</v>
+        <v>209</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -3879,19 +3514,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>266</v>
+        <v>209</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -3905,19 +3540,19 @@
         <v>7</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>266</v>
+        <v>209</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -3931,19 +3566,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>266</v>
+        <v>209</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -3957,19 +3592,19 @@
         <v>7</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>266</v>
+        <v>209</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -3983,19 +3618,19 @@
         <v>7</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>266</v>
+        <v>244</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -4020,11 +3655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4045,26 +3680,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="47" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -4109,19 +3744,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>93</v>
-      </c>
       <c r="D3" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>195</v>
-      </c>
       <c r="F3" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -4135,19 +3770,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>195</v>
-      </c>
       <c r="F4" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -4161,19 +3796,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>195</v>
-      </c>
       <c r="F5" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -4187,19 +3822,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>195</v>
-      </c>
       <c r="F6" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -4213,19 +3848,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -4239,19 +3874,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>195</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -4265,16 +3900,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -4287,19 +3922,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -4313,19 +3948,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -4339,19 +3974,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -4365,19 +4000,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -4391,19 +4026,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -4417,19 +4052,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -4443,19 +4078,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -4469,19 +4104,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>195</v>
-      </c>
       <c r="F17" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -4495,19 +4130,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>195</v>
-      </c>
       <c r="F18" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -4529,7 +4164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4553,26 +4188,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="47" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4648,11 +4283,11 @@
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -4774,11 +4409,11 @@
       <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -4838,18 +4473,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
@@ -4863,26 +4498,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="47" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -4927,19 +4562,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>110</v>
-      </c>
       <c r="D3" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -4953,19 +4588,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -4979,19 +4614,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>246</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -5005,19 +4640,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -5031,19 +4666,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>246</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -5057,19 +4692,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -5083,19 +4718,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E9" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>243</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>246</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -5109,19 +4744,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -5135,19 +4770,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>246</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -5161,19 +4796,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -5187,16 +4822,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
@@ -5209,19 +4844,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -5235,19 +4870,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>246</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -5261,19 +4896,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -5287,19 +4922,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -5313,19 +4948,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -5339,19 +4974,19 @@
         <v>7</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>246</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -5365,19 +5000,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -5391,19 +5026,19 @@
         <v>7</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>246</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -5417,19 +5052,19 @@
         <v>7</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -5443,19 +5078,19 @@
         <v>7</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>246</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -5477,18 +5112,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:F12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" style="12" customWidth="1"/>
@@ -5502,26 +5137,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="47" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -5566,19 +5201,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>132</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>214</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>217</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -5592,16 +5227,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -5614,19 +5249,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -5640,19 +5275,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>215</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>218</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -5666,19 +5301,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -5692,16 +5327,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -5714,19 +5349,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -5740,16 +5375,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -5762,19 +5397,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -5788,16 +5423,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -5810,19 +5445,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -5836,19 +5471,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -5862,19 +5497,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -5888,19 +5523,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -5914,16 +5549,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -5936,19 +5571,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -5962,19 +5597,19 @@
         <v>7</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -5988,19 +5623,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -6014,19 +5649,19 @@
         <v>7</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -6037,7 +5672,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D12:F12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -6046,6 +5680,7 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6053,11 +5688,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6078,26 +5713,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="47" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -6142,19 +5777,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>152</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>239</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>240</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -6168,19 +5803,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>240</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -6194,19 +5829,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>239</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>240</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -6220,19 +5855,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>240</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -6246,19 +5881,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>240</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -6272,19 +5907,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>240</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -6298,16 +5933,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -6320,19 +5955,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>240</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -6346,16 +5981,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -6368,19 +6003,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>240</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -6394,19 +6029,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>240</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -6420,19 +6055,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>240</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -6446,19 +6081,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>240</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -6472,16 +6107,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -6494,19 +6129,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>240</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -6520,19 +6155,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>240</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -6546,19 +6181,19 @@
         <v>7</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>240</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -6572,19 +6207,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>240</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -6598,19 +6233,19 @@
         <v>7</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>240</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -6624,19 +6259,19 @@
         <v>7</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>240</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
